--- a/SourceCode/2024/March2024/Shankar/Task 12/New.xlsx
+++ b/SourceCode/2024/March2024/Shankar/Task 12/New.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munga\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\March2024\Shankar\Task 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2BB92-BAD3-4ACE-B4F4-1C927A8E0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE174D5-E6F6-45CD-B126-40F83CFBE030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -33,19 +35,22 @@
     <t>place</t>
   </si>
   <si>
+    <t>pin</t>
+  </si>
+  <si>
     <t>shankar</t>
   </si>
   <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
     <t>raju</t>
   </si>
   <si>
+    <t>Puna</t>
+  </si>
+  <si>
     <t>sarayu</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Puna</t>
   </si>
   <si>
     <t>usa</t>
@@ -368,56 +373,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B435BDD-A071-4F57-B696-1474BC35F296}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>500058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>500026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>500482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>500045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>500026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>500482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>500045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>500026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>500482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500045</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>500058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>500026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>500482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>